--- a/journal/resources/TestData.xlsx
+++ b/journal/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samir/Documents/GitHub/java-io-sam1rrrr/journal/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57D0C47-E27B-094A-BC0E-14CBEAC74A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C094B-8AA8-E643-A1A9-613DB22435DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teachers" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>ФИО</t>
   </si>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +720,7 @@
       <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="0">
         <v>401</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
       <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="0">
         <v>402</v>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="0">
         <v>403</v>
       </c>
     </row>
@@ -744,7 +744,7 @@
       <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="0">
         <v>404</v>
       </c>
     </row>
@@ -823,9 +823,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1034,6 +1036,75 @@
       </c>
       <c r="G9" t="s" s="0">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1161,6 +1232,468 @@
         <v>4.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
